--- a/商統_Final_Report/combined_excel.xlsx
+++ b/商統_Final_Report/combined_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\商統_Final_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07826691-3928-4F85-9943-07D6CE4EFE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5FF11D-DFEC-47B2-A2A8-1249B8C11729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="809">
   <si>
     <t>Player</t>
   </si>
@@ -2421,6 +2421,33 @@
   <si>
     <t>Sacramento Kings</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Forward-Center</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>Guard-Forward</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Forward-Guard</t>
+  </si>
+  <si>
+    <t>Center-Forward</t>
+  </si>
+  <si>
+    <t>Not Found</t>
   </si>
 </sst>
 </file>
@@ -2795,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y541"/>
+  <dimension ref="A1:Z541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2828,9 +2855,10 @@
     <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2906,8 +2934,11 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2983,8 +3014,11 @@
       <c r="Y2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -3060,8 +3094,11 @@
       <c r="Y3">
         <v>2012</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3137,8 +3174,11 @@
       <c r="Y4">
         <v>2012</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3214,8 +3254,11 @@
       <c r="Y5">
         <v>2012</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3291,8 +3334,11 @@
       <c r="Y6">
         <v>2012</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3368,8 +3414,11 @@
       <c r="Y7">
         <v>2012</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -3445,8 +3494,11 @@
       <c r="Y8">
         <v>2012</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3522,8 +3574,11 @@
       <c r="Y9">
         <v>2012</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3599,8 +3654,11 @@
       <c r="Y10">
         <v>2012</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3676,8 +3734,11 @@
       <c r="Y11">
         <v>2012</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -3753,8 +3814,11 @@
       <c r="Y12">
         <v>2012</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -3830,8 +3894,11 @@
       <c r="Y13">
         <v>2012</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -3907,8 +3974,11 @@
       <c r="Y14">
         <v>2012</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -3984,8 +4054,11 @@
       <c r="Y15">
         <v>2012</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z15" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -4061,8 +4134,11 @@
       <c r="Y16">
         <v>2012</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -4138,8 +4214,11 @@
       <c r="Y17">
         <v>2012</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -4215,8 +4294,11 @@
       <c r="Y18">
         <v>2012</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -4292,8 +4374,11 @@
       <c r="Y19">
         <v>2012</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -4369,8 +4454,11 @@
       <c r="Y20">
         <v>2012</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z20" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -4413,8 +4501,11 @@
       <c r="Y21">
         <v>2012</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -4490,8 +4581,11 @@
       <c r="Y22">
         <v>2012</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -4561,8 +4655,11 @@
       <c r="Y23">
         <v>2012</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -4638,8 +4735,11 @@
       <c r="Y24">
         <v>2012</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -4715,8 +4815,11 @@
       <c r="Y25">
         <v>2012</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z25" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -4792,8 +4895,11 @@
       <c r="Y26">
         <v>2012</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z26" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -4869,8 +4975,11 @@
       <c r="Y27">
         <v>2012</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -4946,8 +5055,11 @@
       <c r="Y28">
         <v>2012</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -5023,8 +5135,11 @@
       <c r="Y29">
         <v>2012</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -5100,8 +5215,11 @@
       <c r="Y30">
         <v>2012</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z30" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -5177,8 +5295,11 @@
       <c r="Y31">
         <v>2012</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z31" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -5248,8 +5369,11 @@
       <c r="Y32">
         <v>2012</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z32" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -5286,8 +5410,11 @@
       <c r="Y33">
         <v>2012</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z33" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -5363,8 +5490,11 @@
       <c r="Y34">
         <v>2012</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z34" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -5440,8 +5570,11 @@
       <c r="Y35">
         <v>2012</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z35" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -5517,8 +5650,11 @@
       <c r="Y36">
         <v>2012</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z36" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -5594,8 +5730,11 @@
       <c r="Y37">
         <v>2012</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z37" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -5671,8 +5810,11 @@
       <c r="Y38">
         <v>2012</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z38" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -5748,8 +5890,11 @@
       <c r="Y39">
         <v>2012</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z39" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -5825,8 +5970,11 @@
       <c r="Y40">
         <v>2012</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z40" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -5902,8 +6050,11 @@
       <c r="Y41">
         <v>2012</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z41" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -5979,8 +6130,11 @@
       <c r="Y42">
         <v>2012</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z42" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -6056,8 +6210,11 @@
       <c r="Y43">
         <v>2012</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z43" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -6133,8 +6290,11 @@
       <c r="Y44">
         <v>2012</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z44" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -6204,8 +6364,11 @@
       <c r="Y45">
         <v>2012</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z45" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -6275,8 +6438,11 @@
       <c r="Y46">
         <v>2012</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z46" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -6352,8 +6518,11 @@
       <c r="Y47">
         <v>2012</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z47" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -6423,8 +6592,11 @@
       <c r="Y48">
         <v>2012</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z48" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -6461,8 +6633,11 @@
       <c r="Y49">
         <v>2012</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z49" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -6532,8 +6707,11 @@
       <c r="Y50">
         <v>2012</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z50" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -6570,8 +6748,11 @@
       <c r="Y51">
         <v>2012</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z51" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -6641,8 +6822,11 @@
       <c r="Y52">
         <v>2012</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z52" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -6679,8 +6863,11 @@
       <c r="Y53">
         <v>2012</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z53" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -6717,8 +6904,11 @@
       <c r="Y54">
         <v>2012</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z54" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -6761,8 +6951,11 @@
       <c r="Y55">
         <v>2012</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z55" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -6838,8 +7031,11 @@
       <c r="Y56">
         <v>2012</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z56" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -6876,8 +7072,11 @@
       <c r="Y57">
         <v>2012</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z57" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -6914,8 +7113,11 @@
       <c r="Y58">
         <v>2012</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z58" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -6985,8 +7187,11 @@
       <c r="Y59">
         <v>2012</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z59" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -7056,8 +7261,11 @@
       <c r="Y60">
         <v>2012</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z60" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -7133,8 +7341,11 @@
       <c r="Y61">
         <v>2012</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z61" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -7210,8 +7421,11 @@
       <c r="Y62">
         <v>2013</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z62" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -7287,8 +7501,11 @@
       <c r="Y63">
         <v>2013</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z63" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -7364,8 +7581,11 @@
       <c r="Y64">
         <v>2013</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z64" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -7441,8 +7661,11 @@
       <c r="Y65">
         <v>2013</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z65" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -7518,8 +7741,11 @@
       <c r="Y66">
         <v>2013</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z66" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -7595,8 +7821,11 @@
       <c r="Y67">
         <v>2013</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z67" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -7672,8 +7901,11 @@
       <c r="Y68">
         <v>2013</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z68" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -7749,8 +7981,11 @@
       <c r="Y69">
         <v>2013</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z69" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -7826,8 +8061,11 @@
       <c r="Y70">
         <v>2013</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z70" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -7903,8 +8141,11 @@
       <c r="Y71">
         <v>2013</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z71" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>95</v>
       </c>
@@ -7980,8 +8221,11 @@
       <c r="Y72">
         <v>2013</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z72" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>96</v>
       </c>
@@ -8057,8 +8301,11 @@
       <c r="Y73">
         <v>2013</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z73" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -8134,8 +8381,11 @@
       <c r="Y74">
         <v>2013</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z74" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -8211,8 +8461,11 @@
       <c r="Y75">
         <v>2013</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z75" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>99</v>
       </c>
@@ -8255,8 +8508,11 @@
       <c r="Y76">
         <v>2013</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z76" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>100</v>
       </c>
@@ -8293,8 +8549,11 @@
       <c r="Y77">
         <v>2013</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z77" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -8337,8 +8596,11 @@
       <c r="Y78">
         <v>2013</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z78" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>102</v>
       </c>
@@ -8414,8 +8676,11 @@
       <c r="Y79">
         <v>2013</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z79" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -8458,8 +8723,11 @@
       <c r="Y80">
         <v>2013</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z80" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -8535,8 +8803,11 @@
       <c r="Y81">
         <v>2013</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z81" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>105</v>
       </c>
@@ -8612,8 +8883,11 @@
       <c r="Y82">
         <v>2013</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z82" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>106</v>
       </c>
@@ -8689,8 +8963,11 @@
       <c r="Y83">
         <v>2013</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z83" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -8766,8 +9043,11 @@
       <c r="Y84">
         <v>2013</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z84" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -8837,8 +9117,11 @@
       <c r="Y85">
         <v>2013</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z85" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -8914,8 +9197,11 @@
       <c r="Y86">
         <v>2013</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z86" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>110</v>
       </c>
@@ -8991,8 +9277,11 @@
       <c r="Y87">
         <v>2013</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z87" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>111</v>
       </c>
@@ -9035,8 +9324,11 @@
       <c r="Y88">
         <v>2013</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z88" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -9073,8 +9365,11 @@
       <c r="Y89">
         <v>2013</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z89" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -9150,8 +9445,11 @@
       <c r="Y90">
         <v>2013</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z90" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -9194,8 +9492,11 @@
       <c r="Y91">
         <v>2013</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z91" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -9271,8 +9572,11 @@
       <c r="Y92">
         <v>2013</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z92" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -9309,8 +9613,11 @@
       <c r="Y93">
         <v>2013</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z93" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>117</v>
       </c>
@@ -9380,8 +9687,11 @@
       <c r="Y94">
         <v>2013</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z94" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>118</v>
       </c>
@@ -9457,8 +9767,11 @@
       <c r="Y95">
         <v>2013</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z95" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>119</v>
       </c>
@@ -9495,8 +9808,11 @@
       <c r="Y96">
         <v>2013</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z96" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>120</v>
       </c>
@@ -9572,8 +9888,11 @@
       <c r="Y97">
         <v>2013</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z97" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>121</v>
       </c>
@@ -9649,8 +9968,11 @@
       <c r="Y98">
         <v>2013</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z98" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>122</v>
       </c>
@@ -9726,8 +10048,11 @@
       <c r="Y99">
         <v>2013</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z99" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>123</v>
       </c>
@@ -9803,8 +10128,11 @@
       <c r="Y100">
         <v>2013</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z100" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>124</v>
       </c>
@@ -9880,8 +10208,11 @@
       <c r="Y101">
         <v>2013</v>
       </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z101" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>125</v>
       </c>
@@ -9957,8 +10288,11 @@
       <c r="Y102">
         <v>2013</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z102" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>126</v>
       </c>
@@ -10028,8 +10362,11 @@
       <c r="Y103">
         <v>2013</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z103" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>127</v>
       </c>
@@ -10072,8 +10409,11 @@
       <c r="Y104">
         <v>2013</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z104" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>128</v>
       </c>
@@ -10149,8 +10489,11 @@
       <c r="Y105">
         <v>2013</v>
       </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z105" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>129</v>
       </c>
@@ -10187,8 +10530,11 @@
       <c r="Y106">
         <v>2013</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z106" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>130</v>
       </c>
@@ -10258,8 +10604,11 @@
       <c r="Y107">
         <v>2013</v>
       </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z107" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -10296,8 +10645,11 @@
       <c r="Y108">
         <v>2013</v>
       </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z108" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>132</v>
       </c>
@@ -10373,8 +10725,11 @@
       <c r="Y109">
         <v>2013</v>
       </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z109" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>133</v>
       </c>
@@ -10444,8 +10799,11 @@
       <c r="Y110">
         <v>2013</v>
       </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z110" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>134</v>
       </c>
@@ -10515,8 +10873,11 @@
       <c r="Y111">
         <v>2013</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z111" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>135</v>
       </c>
@@ -10586,8 +10947,11 @@
       <c r="Y112">
         <v>2013</v>
       </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z112" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>136</v>
       </c>
@@ -10663,8 +11027,11 @@
       <c r="Y113">
         <v>2013</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z113" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>137</v>
       </c>
@@ -10734,8 +11101,11 @@
       <c r="Y114">
         <v>2013</v>
       </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z114" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -10805,8 +11175,11 @@
       <c r="Y115">
         <v>2013</v>
       </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z115" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>139</v>
       </c>
@@ -10843,8 +11216,11 @@
       <c r="Y116">
         <v>2013</v>
       </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z116" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>140</v>
       </c>
@@ -10914,8 +11290,11 @@
       <c r="Y117">
         <v>2013</v>
       </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z117" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>141</v>
       </c>
@@ -10985,8 +11364,11 @@
       <c r="Y118">
         <v>2013</v>
       </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z118" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>142</v>
       </c>
@@ -11056,8 +11438,11 @@
       <c r="Y119">
         <v>2013</v>
       </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z119" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>143</v>
       </c>
@@ -11094,8 +11479,11 @@
       <c r="Y120">
         <v>2013</v>
       </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z120" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>144</v>
       </c>
@@ -11132,8 +11520,11 @@
       <c r="Y121">
         <v>2013</v>
       </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z121" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>145</v>
       </c>
@@ -11209,8 +11600,11 @@
       <c r="Y122">
         <v>2014</v>
       </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z122" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>146</v>
       </c>
@@ -11286,8 +11680,11 @@
       <c r="Y123">
         <v>2014</v>
       </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z123" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>147</v>
       </c>
@@ -11363,8 +11760,11 @@
       <c r="Y124">
         <v>2014</v>
       </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z124" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>148</v>
       </c>
@@ -11440,8 +11840,11 @@
       <c r="Y125">
         <v>2014</v>
       </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z125" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>149</v>
       </c>
@@ -11484,8 +11887,11 @@
       <c r="Y126">
         <v>2014</v>
       </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z126" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>150</v>
       </c>
@@ -11561,8 +11967,11 @@
       <c r="Y127">
         <v>2014</v>
       </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z127" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>151</v>
       </c>
@@ -11638,8 +12047,11 @@
       <c r="Y128">
         <v>2014</v>
       </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z128" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -11715,8 +12127,11 @@
       <c r="Y129">
         <v>2014</v>
       </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z129" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>153</v>
       </c>
@@ -11792,8 +12207,11 @@
       <c r="Y130">
         <v>2014</v>
       </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z130" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>154</v>
       </c>
@@ -11869,8 +12287,11 @@
       <c r="Y131">
         <v>2014</v>
       </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z131" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>155</v>
       </c>
@@ -11946,8 +12367,11 @@
       <c r="Y132">
         <v>2014</v>
       </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z132" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>156</v>
       </c>
@@ -11984,8 +12408,11 @@
       <c r="Y133">
         <v>2014</v>
       </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z133" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>157</v>
       </c>
@@ -12061,8 +12488,11 @@
       <c r="Y134">
         <v>2014</v>
       </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z134" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>158</v>
       </c>
@@ -12132,8 +12562,11 @@
       <c r="Y135">
         <v>2014</v>
       </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z135" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>159</v>
       </c>
@@ -12209,8 +12642,11 @@
       <c r="Y136">
         <v>2014</v>
       </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z136" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>160</v>
       </c>
@@ -12253,8 +12689,11 @@
       <c r="Y137">
         <v>2014</v>
       </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z137" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>161</v>
       </c>
@@ -12330,8 +12769,11 @@
       <c r="Y138">
         <v>2014</v>
       </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z138" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>162</v>
       </c>
@@ -12407,8 +12849,11 @@
       <c r="Y139">
         <v>2014</v>
       </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z139" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>163</v>
       </c>
@@ -12484,8 +12929,11 @@
       <c r="Y140">
         <v>2014</v>
       </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z140" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>164</v>
       </c>
@@ -12528,8 +12976,11 @@
       <c r="Y141">
         <v>2014</v>
       </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z141" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>165</v>
       </c>
@@ -12605,8 +13056,11 @@
       <c r="Y142">
         <v>2014</v>
       </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z142" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>166</v>
       </c>
@@ -12682,8 +13136,11 @@
       <c r="Y143">
         <v>2014</v>
       </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z143" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -12759,8 +13216,11 @@
       <c r="Y144">
         <v>2014</v>
       </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z144" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>168</v>
       </c>
@@ -12836,8 +13296,11 @@
       <c r="Y145">
         <v>2014</v>
       </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z145" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>169</v>
       </c>
@@ -12874,8 +13337,11 @@
       <c r="Y146">
         <v>2014</v>
       </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z146" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>170</v>
       </c>
@@ -12912,8 +13378,11 @@
       <c r="Y147">
         <v>2014</v>
       </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z147" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>171</v>
       </c>
@@ -12950,8 +13419,11 @@
       <c r="Y148">
         <v>2014</v>
       </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z148" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>172</v>
       </c>
@@ -13021,8 +13493,11 @@
       <c r="Y149">
         <v>2014</v>
       </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z149" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>173</v>
       </c>
@@ -13092,8 +13567,11 @@
       <c r="Y150">
         <v>2014</v>
       </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z150" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>174</v>
       </c>
@@ -13169,8 +13647,11 @@
       <c r="Y151">
         <v>2014</v>
       </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z151" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>175</v>
       </c>
@@ -13213,8 +13694,11 @@
       <c r="Y152">
         <v>2014</v>
       </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z152" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>176</v>
       </c>
@@ -13284,8 +13768,11 @@
       <c r="Y153">
         <v>2014</v>
       </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z153" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>177</v>
       </c>
@@ -13361,8 +13848,11 @@
       <c r="Y154">
         <v>2014</v>
       </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z154" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>178</v>
       </c>
@@ -13438,8 +13928,11 @@
       <c r="Y155">
         <v>2014</v>
       </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z155" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>179</v>
       </c>
@@ -13515,8 +14008,11 @@
       <c r="Y156">
         <v>2014</v>
       </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z156" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>180</v>
       </c>
@@ -13586,8 +14082,11 @@
       <c r="Y157">
         <v>2014</v>
       </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z157" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>181</v>
       </c>
@@ -13657,8 +14156,11 @@
       <c r="Y158">
         <v>2014</v>
       </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z158" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>182</v>
       </c>
@@ -13734,8 +14236,11 @@
       <c r="Y159">
         <v>2014</v>
       </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z159" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>183</v>
       </c>
@@ -13811,8 +14316,11 @@
       <c r="Y160">
         <v>2014</v>
       </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z160" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>184</v>
       </c>
@@ -13882,8 +14390,11 @@
       <c r="Y161">
         <v>2014</v>
       </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z161" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>185</v>
       </c>
@@ -13920,8 +14431,11 @@
       <c r="Y162">
         <v>2014</v>
       </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z162" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>186</v>
       </c>
@@ -13991,8 +14505,11 @@
       <c r="Y163">
         <v>2014</v>
       </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z163" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>187</v>
       </c>
@@ -14029,8 +14546,11 @@
       <c r="Y164">
         <v>2014</v>
       </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z164" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>188</v>
       </c>
@@ -14106,8 +14626,11 @@
       <c r="Y165">
         <v>2014</v>
       </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z165" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>189</v>
       </c>
@@ -14183,8 +14706,11 @@
       <c r="Y166">
         <v>2014</v>
       </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z166" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>190</v>
       </c>
@@ -14260,8 +14786,11 @@
       <c r="Y167">
         <v>2014</v>
       </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z167" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>191</v>
       </c>
@@ -14337,8 +14866,11 @@
       <c r="Y168">
         <v>2014</v>
       </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z168" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>192</v>
       </c>
@@ -14408,8 +14940,11 @@
       <c r="Y169">
         <v>2014</v>
       </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z169" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>193</v>
       </c>
@@ -14485,8 +15020,11 @@
       <c r="Y170">
         <v>2014</v>
       </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z170" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>194</v>
       </c>
@@ -14556,8 +15094,11 @@
       <c r="Y171">
         <v>2014</v>
       </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z171" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>195</v>
       </c>
@@ -14594,8 +15135,11 @@
       <c r="Y172">
         <v>2014</v>
       </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z172" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>196</v>
       </c>
@@ -14632,8 +15176,11 @@
       <c r="Y173">
         <v>2014</v>
       </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z173" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>197</v>
       </c>
@@ -14670,8 +15217,11 @@
       <c r="Y174">
         <v>2014</v>
       </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z174" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>198</v>
       </c>
@@ -14708,8 +15258,11 @@
       <c r="Y175">
         <v>2014</v>
       </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z175" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>199</v>
       </c>
@@ -14779,8 +15332,11 @@
       <c r="Y176">
         <v>2014</v>
       </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z176" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>200</v>
       </c>
@@ -14856,8 +15412,11 @@
       <c r="Y177">
         <v>2014</v>
       </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z177" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>201</v>
       </c>
@@ -14891,8 +15450,11 @@
       <c r="Y178">
         <v>2014</v>
       </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z178" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>202</v>
       </c>
@@ -14962,8 +15524,11 @@
       <c r="Y179">
         <v>2014</v>
       </c>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z179" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>203</v>
       </c>
@@ -15033,8 +15598,11 @@
       <c r="Y180">
         <v>2014</v>
       </c>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z180" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>204</v>
       </c>
@@ -15110,8 +15678,11 @@
       <c r="Y181">
         <v>2014</v>
       </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z181" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>205</v>
       </c>
@@ -15187,8 +15758,11 @@
       <c r="Y182">
         <v>2015</v>
       </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z182" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>206</v>
       </c>
@@ -15258,8 +15832,11 @@
       <c r="Y183">
         <v>2015</v>
       </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z183" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>207</v>
       </c>
@@ -15335,8 +15912,11 @@
       <c r="Y184">
         <v>2015</v>
       </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z184" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>208</v>
       </c>
@@ -15379,8 +15959,11 @@
       <c r="Y185">
         <v>2015</v>
       </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z185" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>209</v>
       </c>
@@ -15423,8 +16006,11 @@
       <c r="Y186">
         <v>2015</v>
       </c>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z186" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>210</v>
       </c>
@@ -15500,8 +16086,11 @@
       <c r="Y187">
         <v>2015</v>
       </c>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z187" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>211</v>
       </c>
@@ -15544,8 +16133,11 @@
       <c r="Y188">
         <v>2015</v>
       </c>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z188" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>212</v>
       </c>
@@ -15621,8 +16213,11 @@
       <c r="Y189">
         <v>2015</v>
       </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z189" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>213</v>
       </c>
@@ -15698,8 +16293,11 @@
       <c r="Y190">
         <v>2015</v>
       </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z190" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -15775,8 +16373,11 @@
       <c r="Y191">
         <v>2015</v>
       </c>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z191" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -15852,8 +16453,11 @@
       <c r="Y192">
         <v>2015</v>
       </c>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z192" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -15929,8 +16533,11 @@
       <c r="Y193">
         <v>2015</v>
       </c>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z193" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -16006,8 +16613,11 @@
       <c r="Y194">
         <v>2015</v>
       </c>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z194" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -16083,8 +16693,11 @@
       <c r="Y195">
         <v>2015</v>
       </c>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z195" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>219</v>
       </c>
@@ -16160,8 +16773,11 @@
       <c r="Y196">
         <v>2015</v>
       </c>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z196" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -16237,8 +16853,11 @@
       <c r="Y197">
         <v>2015</v>
       </c>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z197" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>221</v>
       </c>
@@ -16314,8 +16933,11 @@
       <c r="Y198">
         <v>2015</v>
       </c>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z198" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -16391,8 +17013,11 @@
       <c r="Y199">
         <v>2015</v>
       </c>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z199" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>223</v>
       </c>
@@ -16468,8 +17093,11 @@
       <c r="Y200">
         <v>2015</v>
       </c>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z200" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -16545,8 +17173,11 @@
       <c r="Y201">
         <v>2015</v>
       </c>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z201" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -16622,8 +17253,11 @@
       <c r="Y202">
         <v>2015</v>
       </c>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z202" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -16699,8 +17333,11 @@
       <c r="Y203">
         <v>2015</v>
       </c>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z203" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>227</v>
       </c>
@@ -16776,8 +17413,11 @@
       <c r="Y204">
         <v>2015</v>
       </c>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z204" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -16853,8 +17493,11 @@
       <c r="Y205">
         <v>2015</v>
       </c>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z205" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -16930,8 +17573,11 @@
       <c r="Y206">
         <v>2015</v>
       </c>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z206" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -16968,8 +17614,11 @@
       <c r="Y207">
         <v>2015</v>
       </c>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z207" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -17039,8 +17688,11 @@
       <c r="Y208">
         <v>2015</v>
       </c>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z208" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -17110,8 +17762,11 @@
       <c r="Y209">
         <v>2015</v>
       </c>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z209" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -17187,8 +17842,11 @@
       <c r="Y210">
         <v>2015</v>
       </c>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z210" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -17264,8 +17922,11 @@
       <c r="Y211">
         <v>2015</v>
       </c>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z211" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -17302,8 +17963,11 @@
       <c r="Y212">
         <v>2015</v>
       </c>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z212" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>236</v>
       </c>
@@ -17379,8 +18043,11 @@
       <c r="Y213">
         <v>2015</v>
       </c>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z213" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -17456,8 +18123,11 @@
       <c r="Y214">
         <v>2015</v>
       </c>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z214" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -17533,8 +18203,11 @@
       <c r="Y215">
         <v>2015</v>
       </c>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z215" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -17571,8 +18244,11 @@
       <c r="Y216">
         <v>2015</v>
       </c>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z216" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>240</v>
       </c>
@@ -17648,8 +18324,11 @@
       <c r="Y217">
         <v>2015</v>
       </c>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z217" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -17725,8 +18404,11 @@
       <c r="Y218">
         <v>2015</v>
       </c>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z218" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -17802,8 +18484,11 @@
       <c r="Y219">
         <v>2015</v>
       </c>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z219" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -17840,8 +18525,11 @@
       <c r="Y220">
         <v>2015</v>
       </c>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z220" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>244</v>
       </c>
@@ -17917,8 +18605,11 @@
       <c r="Y221">
         <v>2015</v>
       </c>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z221" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -17994,8 +18685,11 @@
       <c r="Y222">
         <v>2015</v>
       </c>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z222" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>246</v>
       </c>
@@ -18065,8 +18759,11 @@
       <c r="Y223">
         <v>2015</v>
       </c>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z223" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -18142,8 +18839,11 @@
       <c r="Y224">
         <v>2015</v>
       </c>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z224" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>248</v>
       </c>
@@ -18213,8 +18913,11 @@
       <c r="Y225">
         <v>2015</v>
       </c>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z225" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -18290,8 +18993,11 @@
       <c r="Y226">
         <v>2015</v>
       </c>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z226" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>250</v>
       </c>
@@ -18367,8 +19073,11 @@
       <c r="Y227">
         <v>2015</v>
       </c>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z227" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -18405,8 +19114,11 @@
       <c r="Y228">
         <v>2015</v>
       </c>
-    </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z228" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -18476,8 +19188,11 @@
       <c r="Y229">
         <v>2015</v>
       </c>
-    </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z229" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -18547,8 +19262,11 @@
       <c r="Y230">
         <v>2015</v>
       </c>
-    </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z230" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -18585,8 +19303,11 @@
       <c r="Y231">
         <v>2015</v>
       </c>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z231" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -18656,8 +19377,11 @@
       <c r="Y232">
         <v>2015</v>
       </c>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z232" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -18694,8 +19418,11 @@
       <c r="Y233">
         <v>2015</v>
       </c>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z233" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -18765,8 +19492,11 @@
       <c r="Y234">
         <v>2015</v>
       </c>
-    </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z234" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -18803,8 +19533,11 @@
       <c r="Y235">
         <v>2015</v>
       </c>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z235" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -18874,8 +19607,11 @@
       <c r="Y236">
         <v>2015</v>
       </c>
-    </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z236" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>260</v>
       </c>
@@ -18945,8 +19681,11 @@
       <c r="Y237">
         <v>2015</v>
       </c>
-    </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z237" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -18989,8 +19728,11 @@
       <c r="Y238">
         <v>2015</v>
       </c>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z238" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -19060,8 +19802,11 @@
       <c r="Y239">
         <v>2015</v>
       </c>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z239" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -19098,8 +19843,11 @@
       <c r="Y240">
         <v>2015</v>
       </c>
-    </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z240" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -19136,8 +19884,11 @@
       <c r="Y241">
         <v>2015</v>
       </c>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z241" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -19213,8 +19964,11 @@
       <c r="Y242">
         <v>2016</v>
       </c>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z242" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -19290,8 +20044,11 @@
       <c r="Y243">
         <v>2016</v>
       </c>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z243" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -19367,8 +20124,11 @@
       <c r="Y244">
         <v>2016</v>
       </c>
-    </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z244" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>268</v>
       </c>
@@ -19411,8 +20171,11 @@
       <c r="Y245">
         <v>2016</v>
       </c>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z245" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -19488,8 +20251,11 @@
       <c r="Y246">
         <v>2016</v>
       </c>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z246" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>270</v>
       </c>
@@ -19565,8 +20331,11 @@
       <c r="Y247">
         <v>2016</v>
       </c>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z247" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -19642,8 +20411,11 @@
       <c r="Y248">
         <v>2016</v>
       </c>
-    </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z248" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>272</v>
       </c>
@@ -19719,8 +20491,11 @@
       <c r="Y249">
         <v>2016</v>
       </c>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z249" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -19796,8 +20571,11 @@
       <c r="Y250">
         <v>2016</v>
       </c>
-    </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z250" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>274</v>
       </c>
@@ -19840,8 +20618,11 @@
       <c r="Y251">
         <v>2016</v>
       </c>
-    </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z251" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -19917,8 +20698,11 @@
       <c r="Y252">
         <v>2016</v>
       </c>
-    </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z252" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>276</v>
       </c>
@@ -19994,8 +20778,11 @@
       <c r="Y253">
         <v>2016</v>
       </c>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z253" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -20038,8 +20825,11 @@
       <c r="Y254">
         <v>2016</v>
       </c>
-    </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z254" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -20115,8 +20905,11 @@
       <c r="Y255">
         <v>2016</v>
       </c>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z255" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -20153,8 +20946,11 @@
       <c r="Y256">
         <v>2016</v>
       </c>
-    </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z256" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>280</v>
       </c>
@@ -20191,8 +20987,11 @@
       <c r="Y257">
         <v>2016</v>
       </c>
-    </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z257" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>281</v>
       </c>
@@ -20268,8 +21067,11 @@
       <c r="Y258">
         <v>2016</v>
       </c>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z258" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -20345,8 +21147,11 @@
       <c r="Y259">
         <v>2016</v>
       </c>
-    </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z259" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>283</v>
       </c>
@@ -20422,8 +21227,11 @@
       <c r="Y260">
         <v>2016</v>
       </c>
-    </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z260" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -20499,8 +21307,11 @@
       <c r="Y261">
         <v>2016</v>
       </c>
-    </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z261" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>285</v>
       </c>
@@ -20576,8 +21387,11 @@
       <c r="Y262">
         <v>2016</v>
       </c>
-    </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z262" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -20653,8 +21467,11 @@
       <c r="Y263">
         <v>2016</v>
       </c>
-    </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z263" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>287</v>
       </c>
@@ -20691,8 +21508,11 @@
       <c r="Y264">
         <v>2016</v>
       </c>
-    </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z264" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -20735,8 +21555,11 @@
       <c r="Y265">
         <v>2016</v>
       </c>
-    </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z265" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -20812,8 +21635,11 @@
       <c r="Y266">
         <v>2016</v>
       </c>
-    </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z266" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -20850,8 +21676,11 @@
       <c r="Y267">
         <v>2016</v>
       </c>
-    </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z267" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>291</v>
       </c>
@@ -20927,8 +21756,11 @@
       <c r="Y268">
         <v>2016</v>
       </c>
-    </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z268" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -21004,8 +21836,11 @@
       <c r="Y269">
         <v>2016</v>
       </c>
-    </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z269" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -21081,8 +21916,11 @@
       <c r="Y270">
         <v>2016</v>
       </c>
-    </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z270" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -21158,8 +21996,11 @@
       <c r="Y271">
         <v>2016</v>
       </c>
-    </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z271" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>295</v>
       </c>
@@ -21235,8 +22076,11 @@
       <c r="Y272">
         <v>2016</v>
       </c>
-    </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z272" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>296</v>
       </c>
@@ -21279,8 +22123,11 @@
       <c r="Y273">
         <v>2016</v>
       </c>
-    </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z273" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -21356,8 +22203,11 @@
       <c r="Y274">
         <v>2016</v>
       </c>
-    </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z274" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>298</v>
       </c>
@@ -21433,8 +22283,11 @@
       <c r="Y275">
         <v>2016</v>
       </c>
-    </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z275" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -21471,8 +22324,11 @@
       <c r="Y276">
         <v>2016</v>
       </c>
-    </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z276" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>300</v>
       </c>
@@ -21548,8 +22404,11 @@
       <c r="Y277">
         <v>2016</v>
       </c>
-    </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z277" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -21625,8 +22484,11 @@
       <c r="Y278">
         <v>2016</v>
       </c>
-    </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z278" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>302</v>
       </c>
@@ -21702,8 +22564,11 @@
       <c r="Y279">
         <v>2016</v>
       </c>
-    </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z279" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -21740,8 +22605,11 @@
       <c r="Y280">
         <v>2016</v>
       </c>
-    </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z280" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -21811,8 +22679,11 @@
       <c r="Y281">
         <v>2016</v>
       </c>
-    </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z281" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>305</v>
       </c>
@@ -21882,8 +22753,11 @@
       <c r="Y282">
         <v>2016</v>
       </c>
-    </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z282" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -21959,8 +22833,11 @@
       <c r="Y283">
         <v>2016</v>
       </c>
-    </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z283" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>307</v>
       </c>
@@ -21997,8 +22874,11 @@
       <c r="Y284">
         <v>2016</v>
       </c>
-    </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z284" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>308</v>
       </c>
@@ -22035,8 +22915,11 @@
       <c r="Y285">
         <v>2016</v>
       </c>
-    </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z285" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>309</v>
       </c>
@@ -22112,8 +22995,11 @@
       <c r="Y286">
         <v>2016</v>
       </c>
-    </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z286" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>310</v>
       </c>
@@ -22183,8 +23069,11 @@
       <c r="Y287">
         <v>2016</v>
       </c>
-    </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z287" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>311</v>
       </c>
@@ -22260,8 +23149,11 @@
       <c r="Y288">
         <v>2016</v>
       </c>
-    </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z288" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>312</v>
       </c>
@@ -22304,8 +23196,11 @@
       <c r="Y289">
         <v>2016</v>
       </c>
-    </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z289" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>313</v>
       </c>
@@ -22375,8 +23270,11 @@
       <c r="Y290">
         <v>2016</v>
       </c>
-    </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z290" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>314</v>
       </c>
@@ -22452,8 +23350,11 @@
       <c r="Y291">
         <v>2016</v>
       </c>
-    </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z291" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>315</v>
       </c>
@@ -22523,8 +23424,11 @@
       <c r="Y292">
         <v>2016</v>
       </c>
-    </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z292" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>316</v>
       </c>
@@ -22600,8 +23504,11 @@
       <c r="Y293">
         <v>2016</v>
       </c>
-    </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z293" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>317</v>
       </c>
@@ -22638,8 +23545,11 @@
       <c r="Y294">
         <v>2016</v>
       </c>
-    </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z294" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>318</v>
       </c>
@@ -22715,8 +23625,11 @@
       <c r="Y295">
         <v>2016</v>
       </c>
-    </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z295" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>319</v>
       </c>
@@ -22786,8 +23699,11 @@
       <c r="Y296">
         <v>2016</v>
       </c>
-    </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z296" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>320</v>
       </c>
@@ -22857,8 +23773,11 @@
       <c r="Y297">
         <v>2016</v>
       </c>
-    </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z297" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>321</v>
       </c>
@@ -22895,8 +23814,11 @@
       <c r="Y298">
         <v>2016</v>
       </c>
-    </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z298" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>322</v>
       </c>
@@ -22966,8 +23888,11 @@
       <c r="Y299">
         <v>2016</v>
       </c>
-    </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z299" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>323</v>
       </c>
@@ -23037,8 +23962,11 @@
       <c r="Y300">
         <v>2016</v>
       </c>
-    </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z300" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>324</v>
       </c>
@@ -23108,8 +24036,11 @@
       <c r="Y301">
         <v>2016</v>
       </c>
-    </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z301" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>325</v>
       </c>
@@ -23185,8 +24116,11 @@
       <c r="Y302">
         <v>2017</v>
       </c>
-    </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z302" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>326</v>
       </c>
@@ -23262,8 +24196,11 @@
       <c r="Y303">
         <v>2017</v>
       </c>
-    </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z303" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>327</v>
       </c>
@@ -23339,8 +24276,11 @@
       <c r="Y304">
         <v>2017</v>
       </c>
-    </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z304" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>328</v>
       </c>
@@ -23416,8 +24356,11 @@
       <c r="Y305">
         <v>2017</v>
       </c>
-    </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z305" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>329</v>
       </c>
@@ -23493,8 +24436,11 @@
       <c r="Y306">
         <v>2017</v>
       </c>
-    </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z306" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>330</v>
       </c>
@@ -23570,8 +24516,11 @@
       <c r="Y307">
         <v>2017</v>
       </c>
-    </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z307" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>331</v>
       </c>
@@ -23647,8 +24596,11 @@
       <c r="Y308">
         <v>2017</v>
       </c>
-    </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z308" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>332</v>
       </c>
@@ -23685,8 +24637,11 @@
       <c r="Y309">
         <v>2017</v>
       </c>
-    </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z309" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>333</v>
       </c>
@@ -23762,8 +24717,11 @@
       <c r="Y310">
         <v>2017</v>
       </c>
-    </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z310" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>334</v>
       </c>
@@ -23839,8 +24797,11 @@
       <c r="Y311">
         <v>2017</v>
       </c>
-    </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z311" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>335</v>
       </c>
@@ -23916,8 +24877,11 @@
       <c r="Y312">
         <v>2017</v>
       </c>
-    </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z312" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>336</v>
       </c>
@@ -23993,8 +24957,11 @@
       <c r="Y313">
         <v>2017</v>
       </c>
-    </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z313" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>337</v>
       </c>
@@ -24070,8 +25037,11 @@
       <c r="Y314">
         <v>2017</v>
       </c>
-    </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z314" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>338</v>
       </c>
@@ -24147,8 +25117,11 @@
       <c r="Y315">
         <v>2017</v>
       </c>
-    </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z315" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>339</v>
       </c>
@@ -24224,8 +25197,11 @@
       <c r="Y316">
         <v>2017</v>
       </c>
-    </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z316" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>340</v>
       </c>
@@ -24301,8 +25277,11 @@
       <c r="Y317">
         <v>2017</v>
       </c>
-    </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z317" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>341</v>
       </c>
@@ -24372,8 +25351,11 @@
       <c r="Y318">
         <v>2017</v>
       </c>
-    </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z318" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>342</v>
       </c>
@@ -24443,8 +25425,11 @@
       <c r="Y319">
         <v>2017</v>
       </c>
-    </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z319" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>343</v>
       </c>
@@ -24520,8 +25505,11 @@
       <c r="Y320">
         <v>2017</v>
       </c>
-    </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z320" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>344</v>
       </c>
@@ -24597,8 +25585,11 @@
       <c r="Y321">
         <v>2017</v>
       </c>
-    </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z321" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>345</v>
       </c>
@@ -24641,8 +25632,11 @@
       <c r="Y322">
         <v>2017</v>
       </c>
-    </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z322" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>346</v>
       </c>
@@ -24718,8 +25712,11 @@
       <c r="Y323">
         <v>2017</v>
       </c>
-    </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z323" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>347</v>
       </c>
@@ -24795,8 +25792,11 @@
       <c r="Y324">
         <v>2017</v>
       </c>
-    </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z324" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>348</v>
       </c>
@@ -24872,8 +25872,11 @@
       <c r="Y325">
         <v>2017</v>
       </c>
-    </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z325" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>349</v>
       </c>
@@ -24910,8 +25913,11 @@
       <c r="Y326">
         <v>2017</v>
       </c>
-    </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z326" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>350</v>
       </c>
@@ -24987,8 +25993,11 @@
       <c r="Y327">
         <v>2017</v>
       </c>
-    </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z327" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>351</v>
       </c>
@@ -25064,8 +26073,11 @@
       <c r="Y328">
         <v>2017</v>
       </c>
-    </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z328" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>352</v>
       </c>
@@ -25141,8 +26153,11 @@
       <c r="Y329">
         <v>2017</v>
       </c>
-    </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z329" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>353</v>
       </c>
@@ -25218,8 +26233,11 @@
       <c r="Y330">
         <v>2017</v>
       </c>
-    </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z330" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>354</v>
       </c>
@@ -25295,8 +26313,11 @@
       <c r="Y331">
         <v>2017</v>
       </c>
-    </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z331" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>355</v>
       </c>
@@ -25372,8 +26393,11 @@
       <c r="Y332">
         <v>2017</v>
       </c>
-    </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z332" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>356</v>
       </c>
@@ -25449,8 +26473,11 @@
       <c r="Y333">
         <v>2017</v>
       </c>
-    </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z333" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>357</v>
       </c>
@@ -25520,8 +26547,11 @@
       <c r="Y334">
         <v>2017</v>
       </c>
-    </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z334" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>358</v>
       </c>
@@ -25597,8 +26627,11 @@
       <c r="Y335">
         <v>2017</v>
       </c>
-    </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z335" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>359</v>
       </c>
@@ -25674,8 +26707,11 @@
       <c r="Y336">
         <v>2017</v>
       </c>
-    </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z336" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>360</v>
       </c>
@@ -25712,8 +26748,11 @@
       <c r="Y337">
         <v>2017</v>
       </c>
-    </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z337" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>361</v>
       </c>
@@ -25789,8 +26828,11 @@
       <c r="Y338">
         <v>2017</v>
       </c>
-    </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z338" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>362</v>
       </c>
@@ -25866,8 +26908,11 @@
       <c r="Y339">
         <v>2017</v>
       </c>
-    </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z339" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>363</v>
       </c>
@@ -25943,8 +26988,11 @@
       <c r="Y340">
         <v>2017</v>
       </c>
-    </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z340" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>364</v>
       </c>
@@ -26020,8 +27068,11 @@
       <c r="Y341">
         <v>2017</v>
       </c>
-    </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z341" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>365</v>
       </c>
@@ -26097,8 +27148,11 @@
       <c r="Y342">
         <v>2017</v>
       </c>
-    </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z342" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>366</v>
       </c>
@@ -26174,8 +27228,11 @@
       <c r="Y343">
         <v>2017</v>
       </c>
-    </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z343" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>367</v>
       </c>
@@ -26212,8 +27269,11 @@
       <c r="Y344">
         <v>2017</v>
       </c>
-    </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z344" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>368</v>
       </c>
@@ -26289,8 +27349,11 @@
       <c r="Y345">
         <v>2017</v>
       </c>
-    </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z345" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>369</v>
       </c>
@@ -26366,8 +27429,11 @@
       <c r="Y346">
         <v>2017</v>
       </c>
-    </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z346" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>370</v>
       </c>
@@ -26443,8 +27509,11 @@
       <c r="Y347">
         <v>2017</v>
       </c>
-    </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z347" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>371</v>
       </c>
@@ -26520,8 +27589,11 @@
       <c r="Y348">
         <v>2017</v>
       </c>
-    </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z348" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>372</v>
       </c>
@@ -26597,8 +27669,11 @@
       <c r="Y349">
         <v>2017</v>
       </c>
-    </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z349" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>373</v>
       </c>
@@ -26635,8 +27710,11 @@
       <c r="Y350">
         <v>2017</v>
       </c>
-    </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z350" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>374</v>
       </c>
@@ -26673,8 +27751,11 @@
       <c r="Y351">
         <v>2017</v>
       </c>
-    </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z351" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>375</v>
       </c>
@@ -26750,8 +27831,11 @@
       <c r="Y352">
         <v>2017</v>
       </c>
-    </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z352" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>376</v>
       </c>
@@ -26827,8 +27911,11 @@
       <c r="Y353">
         <v>2017</v>
       </c>
-    </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z353" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>377</v>
       </c>
@@ -26904,8 +27991,11 @@
       <c r="Y354">
         <v>2017</v>
       </c>
-    </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z354" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>378</v>
       </c>
@@ -26975,8 +28065,11 @@
       <c r="Y355">
         <v>2017</v>
       </c>
-    </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z355" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>379</v>
       </c>
@@ -27046,8 +28139,11 @@
       <c r="Y356">
         <v>2017</v>
       </c>
-    </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z356" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>380</v>
       </c>
@@ -27123,8 +28219,11 @@
       <c r="Y357">
         <v>2017</v>
       </c>
-    </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z357" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>381</v>
       </c>
@@ -27161,8 +28260,11 @@
       <c r="Y358">
         <v>2017</v>
       </c>
-    </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z358" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>382</v>
       </c>
@@ -27199,8 +28301,11 @@
       <c r="Y359">
         <v>2017</v>
       </c>
-    </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z359" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>383</v>
       </c>
@@ -27270,8 +28375,11 @@
       <c r="Y360">
         <v>2017</v>
       </c>
-    </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z360" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>384</v>
       </c>
@@ -27308,8 +28416,11 @@
       <c r="Y361">
         <v>2017</v>
       </c>
-    </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z361" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>385</v>
       </c>
@@ -27385,8 +28496,11 @@
       <c r="Y362">
         <v>2018</v>
       </c>
-    </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z362" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>386</v>
       </c>
@@ -27462,8 +28576,11 @@
       <c r="Y363">
         <v>2018</v>
       </c>
-    </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z363" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>387</v>
       </c>
@@ -27539,8 +28656,11 @@
       <c r="Y364">
         <v>2018</v>
       </c>
-    </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z364" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>388</v>
       </c>
@@ -27610,8 +28730,11 @@
       <c r="Y365">
         <v>2018</v>
       </c>
-    </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z365" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>389</v>
       </c>
@@ -27687,8 +28810,11 @@
       <c r="Y366">
         <v>2018</v>
       </c>
-    </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z366" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>390</v>
       </c>
@@ -27758,8 +28884,11 @@
       <c r="Y367">
         <v>2018</v>
       </c>
-    </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z367" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>391</v>
       </c>
@@ -27835,8 +28964,11 @@
       <c r="Y368">
         <v>2018</v>
       </c>
-    </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z368" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>392</v>
       </c>
@@ -27912,8 +29044,11 @@
       <c r="Y369">
         <v>2018</v>
       </c>
-    </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z369" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>393</v>
       </c>
@@ -27989,8 +29124,11 @@
       <c r="Y370">
         <v>2018</v>
       </c>
-    </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z370" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="371" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>394</v>
       </c>
@@ -28066,8 +29204,11 @@
       <c r="Y371">
         <v>2018</v>
       </c>
-    </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z371" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>395</v>
       </c>
@@ -28143,8 +29284,11 @@
       <c r="Y372">
         <v>2018</v>
       </c>
-    </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z372" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="373" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>396</v>
       </c>
@@ -28220,8 +29364,11 @@
       <c r="Y373">
         <v>2018</v>
       </c>
-    </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z373" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>397</v>
       </c>
@@ -28297,8 +29444,11 @@
       <c r="Y374">
         <v>2018</v>
       </c>
-    </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z374" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>398</v>
       </c>
@@ -28374,8 +29524,11 @@
       <c r="Y375">
         <v>2018</v>
       </c>
-    </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z375" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>399</v>
       </c>
@@ -28451,8 +29604,11 @@
       <c r="Y376">
         <v>2018</v>
       </c>
-    </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z376" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="377" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>400</v>
       </c>
@@ -28528,8 +29684,11 @@
       <c r="Y377">
         <v>2018</v>
       </c>
-    </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z377" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>401</v>
       </c>
@@ -28605,8 +29764,11 @@
       <c r="Y378">
         <v>2018</v>
       </c>
-    </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z378" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="379" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>402</v>
       </c>
@@ -28682,8 +29844,11 @@
       <c r="Y379">
         <v>2018</v>
       </c>
-    </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z379" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>403</v>
       </c>
@@ -28759,8 +29924,11 @@
       <c r="Y380">
         <v>2018</v>
       </c>
-    </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z380" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="381" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>404</v>
       </c>
@@ -28836,8 +30004,11 @@
       <c r="Y381">
         <v>2018</v>
       </c>
-    </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z381" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>405</v>
       </c>
@@ -28913,8 +30084,11 @@
       <c r="Y382">
         <v>2018</v>
       </c>
-    </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z382" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="383" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>406</v>
       </c>
@@ -28990,8 +30164,11 @@
       <c r="Y383">
         <v>2018</v>
       </c>
-    </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z383" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>407</v>
       </c>
@@ -29067,8 +30244,11 @@
       <c r="Y384">
         <v>2018</v>
       </c>
-    </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z384" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>408</v>
       </c>
@@ -29111,8 +30291,11 @@
       <c r="Y385">
         <v>2018</v>
       </c>
-    </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z385" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>409</v>
       </c>
@@ -29188,8 +30371,11 @@
       <c r="Y386">
         <v>2018</v>
       </c>
-    </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z386" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="387" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>410</v>
       </c>
@@ -29265,8 +30451,11 @@
       <c r="Y387">
         <v>2018</v>
       </c>
-    </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z387" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>411</v>
       </c>
@@ -29342,8 +30531,11 @@
       <c r="Y388">
         <v>2018</v>
       </c>
-    </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z388" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>412</v>
       </c>
@@ -29419,8 +30611,11 @@
       <c r="Y389">
         <v>2018</v>
       </c>
-    </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z389" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>413</v>
       </c>
@@ -29463,8 +30658,11 @@
       <c r="Y390">
         <v>2018</v>
       </c>
-    </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z390" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>414</v>
       </c>
@@ -29540,8 +30738,11 @@
       <c r="Y391">
         <v>2018</v>
       </c>
-    </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z391" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>415</v>
       </c>
@@ -29584,8 +30785,11 @@
       <c r="Y392">
         <v>2018</v>
       </c>
-    </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z392" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>416</v>
       </c>
@@ -29661,8 +30865,11 @@
       <c r="Y393">
         <v>2018</v>
       </c>
-    </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z393" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>417</v>
       </c>
@@ -29738,8 +30945,11 @@
       <c r="Y394">
         <v>2018</v>
       </c>
-    </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z394" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>418</v>
       </c>
@@ -29815,8 +31025,11 @@
       <c r="Y395">
         <v>2018</v>
       </c>
-    </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z395" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>419</v>
       </c>
@@ -29892,8 +31105,11 @@
       <c r="Y396">
         <v>2018</v>
       </c>
-    </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z396" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>420</v>
       </c>
@@ -29933,8 +31149,11 @@
       <c r="Y397">
         <v>2018</v>
       </c>
-    </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z397" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>421</v>
       </c>
@@ -30004,8 +31223,11 @@
       <c r="Y398">
         <v>2018</v>
       </c>
-    </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z398" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>422</v>
       </c>
@@ -30081,8 +31303,11 @@
       <c r="Y399">
         <v>2018</v>
       </c>
-    </row>
-    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z399" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>423</v>
       </c>
@@ -30125,8 +31350,11 @@
       <c r="Y400">
         <v>2018</v>
       </c>
-    </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z400" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>424</v>
       </c>
@@ -30169,8 +31397,11 @@
       <c r="Y401">
         <v>2018</v>
       </c>
-    </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z401" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="402" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>425</v>
       </c>
@@ -30246,8 +31477,11 @@
       <c r="Y402">
         <v>2018</v>
       </c>
-    </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z402" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>426</v>
       </c>
@@ -30323,8 +31557,11 @@
       <c r="Y403">
         <v>2018</v>
       </c>
-    </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z403" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="404" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>339</v>
       </c>
@@ -30400,8 +31637,11 @@
       <c r="Y404">
         <v>2018</v>
       </c>
-    </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z404" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>427</v>
       </c>
@@ -30438,8 +31678,11 @@
       <c r="Y405">
         <v>2018</v>
       </c>
-    </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z405" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="406" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>428</v>
       </c>
@@ -30515,8 +31758,11 @@
       <c r="Y406">
         <v>2018</v>
       </c>
-    </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z406" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>429</v>
       </c>
@@ -30592,8 +31838,11 @@
       <c r="Y407">
         <v>2018</v>
       </c>
-    </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z407" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="408" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>430</v>
       </c>
@@ -30663,8 +31912,11 @@
       <c r="Y408">
         <v>2018</v>
       </c>
-    </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z408" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>431</v>
       </c>
@@ -30740,8 +31992,11 @@
       <c r="Y409">
         <v>2018</v>
       </c>
-    </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z409" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="410" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>432</v>
       </c>
@@ -30817,8 +32072,11 @@
       <c r="Y410">
         <v>2018</v>
       </c>
-    </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z410" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>433</v>
       </c>
@@ -30894,8 +32152,11 @@
       <c r="Y411">
         <v>2018</v>
       </c>
-    </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z411" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="412" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>434</v>
       </c>
@@ -30965,8 +32226,11 @@
       <c r="Y412">
         <v>2018</v>
       </c>
-    </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z412" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>435</v>
       </c>
@@ -31036,8 +32300,11 @@
       <c r="Y413">
         <v>2018</v>
       </c>
-    </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z413" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="414" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>436</v>
       </c>
@@ -31107,8 +32374,11 @@
       <c r="Y414">
         <v>2018</v>
       </c>
-    </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z414" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>437</v>
       </c>
@@ -31184,8 +32454,11 @@
       <c r="Y415">
         <v>2018</v>
       </c>
-    </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z415" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="416" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>438</v>
       </c>
@@ -31222,8 +32495,11 @@
       <c r="Y416">
         <v>2018</v>
       </c>
-    </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z416" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>439</v>
       </c>
@@ -31299,8 +32575,11 @@
       <c r="Y417">
         <v>2018</v>
       </c>
-    </row>
-    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z417" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>440</v>
       </c>
@@ -31370,8 +32649,11 @@
       <c r="Y418">
         <v>2018</v>
       </c>
-    </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z418" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>441</v>
       </c>
@@ -31441,8 +32723,11 @@
       <c r="Y419">
         <v>2018</v>
       </c>
-    </row>
-    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z419" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>442</v>
       </c>
@@ -31512,8 +32797,11 @@
       <c r="Y420">
         <v>2018</v>
       </c>
-    </row>
-    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z420" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>443</v>
       </c>
@@ -31589,8 +32877,11 @@
       <c r="Y421">
         <v>2018</v>
       </c>
-    </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z421" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>444</v>
       </c>
@@ -31666,8 +32957,11 @@
       <c r="Y422">
         <v>2019</v>
       </c>
-    </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z422" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>445</v>
       </c>
@@ -31743,8 +33037,11 @@
       <c r="Y423">
         <v>2019</v>
       </c>
-    </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z423" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>446</v>
       </c>
@@ -31820,8 +33117,11 @@
       <c r="Y424">
         <v>2019</v>
       </c>
-    </row>
-    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z424" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>447</v>
       </c>
@@ -31897,8 +33197,11 @@
       <c r="Y425">
         <v>2019</v>
       </c>
-    </row>
-    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z425" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>448</v>
       </c>
@@ -31974,8 +33277,11 @@
       <c r="Y426">
         <v>2019</v>
       </c>
-    </row>
-    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z426" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>449</v>
       </c>
@@ -32051,8 +33357,11 @@
       <c r="Y427">
         <v>2019</v>
       </c>
-    </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z427" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>450</v>
       </c>
@@ -32128,8 +33437,11 @@
       <c r="Y428">
         <v>2019</v>
       </c>
-    </row>
-    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z428" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>451</v>
       </c>
@@ -32205,8 +33517,11 @@
       <c r="Y429">
         <v>2019</v>
       </c>
-    </row>
-    <row r="430" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z429" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>452</v>
       </c>
@@ -32282,8 +33597,11 @@
       <c r="Y430">
         <v>2019</v>
       </c>
-    </row>
-    <row r="431" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z430" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>453</v>
       </c>
@@ -32359,8 +33677,11 @@
       <c r="Y431">
         <v>2019</v>
       </c>
-    </row>
-    <row r="432" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z431" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>454</v>
       </c>
@@ -32436,8 +33757,11 @@
       <c r="Y432">
         <v>2019</v>
       </c>
-    </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z432" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="433" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>455</v>
       </c>
@@ -32507,8 +33831,11 @@
       <c r="Y433">
         <v>2019</v>
       </c>
-    </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z433" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>456</v>
       </c>
@@ -32584,8 +33911,11 @@
       <c r="Y434">
         <v>2019</v>
       </c>
-    </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z434" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="435" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>457</v>
       </c>
@@ -32661,8 +33991,11 @@
       <c r="Y435">
         <v>2019</v>
       </c>
-    </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z435" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>458</v>
       </c>
@@ -32738,8 +34071,11 @@
       <c r="Y436">
         <v>2019</v>
       </c>
-    </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z436" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="437" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>459</v>
       </c>
@@ -32809,8 +34145,11 @@
       <c r="Y437">
         <v>2019</v>
       </c>
-    </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z437" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>460</v>
       </c>
@@ -32886,8 +34225,11 @@
       <c r="Y438">
         <v>2019</v>
       </c>
-    </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z438" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="439" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>461</v>
       </c>
@@ -32963,8 +34305,11 @@
       <c r="Y439">
         <v>2019</v>
       </c>
-    </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z439" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>462</v>
       </c>
@@ -33040,8 +34385,11 @@
       <c r="Y440">
         <v>2019</v>
       </c>
-    </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z440" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="441" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>463</v>
       </c>
@@ -33117,8 +34465,11 @@
       <c r="Y441">
         <v>2019</v>
       </c>
-    </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z441" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>464</v>
       </c>
@@ -33194,8 +34545,11 @@
       <c r="Y442">
         <v>2019</v>
       </c>
-    </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z442" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="443" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>465</v>
       </c>
@@ -33271,8 +34625,11 @@
       <c r="Y443">
         <v>2019</v>
       </c>
-    </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z443" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>466</v>
       </c>
@@ -33315,8 +34672,11 @@
       <c r="Y444">
         <v>2019</v>
       </c>
-    </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z444" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="445" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>467</v>
       </c>
@@ -33392,8 +34752,11 @@
       <c r="Y445">
         <v>2019</v>
       </c>
-    </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z445" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="446" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>468</v>
       </c>
@@ -33469,8 +34832,11 @@
       <c r="Y446">
         <v>2019</v>
       </c>
-    </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z446" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="447" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>469</v>
       </c>
@@ -33546,8 +34912,11 @@
       <c r="Y447">
         <v>2019</v>
       </c>
-    </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z447" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="448" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>470</v>
       </c>
@@ -33623,8 +34992,11 @@
       <c r="Y448">
         <v>2019</v>
       </c>
-    </row>
-    <row r="449" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z448" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="449" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>471</v>
       </c>
@@ -33700,8 +35072,11 @@
       <c r="Y449">
         <v>2019</v>
       </c>
-    </row>
-    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z449" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>472</v>
       </c>
@@ -33777,8 +35152,11 @@
       <c r="Y450">
         <v>2019</v>
       </c>
-    </row>
-    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z450" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="451" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>473</v>
       </c>
@@ -33848,8 +35226,11 @@
       <c r="Y451">
         <v>2019</v>
       </c>
-    </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z451" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>474</v>
       </c>
@@ -33919,8 +35300,11 @@
       <c r="Y452">
         <v>2019</v>
       </c>
-    </row>
-    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z452" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="453" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>475</v>
       </c>
@@ -33996,8 +35380,11 @@
       <c r="Y453">
         <v>2019</v>
       </c>
-    </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z453" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="454" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>476</v>
       </c>
@@ -34073,8 +35460,11 @@
       <c r="Y454">
         <v>2019</v>
       </c>
-    </row>
-    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z454" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="455" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>477</v>
       </c>
@@ -34150,8 +35540,11 @@
       <c r="Y455">
         <v>2019</v>
       </c>
-    </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z455" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="456" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -34221,8 +35614,11 @@
       <c r="Y456">
         <v>2019</v>
       </c>
-    </row>
-    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z456" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="457" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -34298,8 +35694,11 @@
       <c r="Y457">
         <v>2019</v>
       </c>
-    </row>
-    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z457" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="458" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>480</v>
       </c>
@@ -34369,8 +35768,11 @@
       <c r="Y458">
         <v>2019</v>
       </c>
-    </row>
-    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z458" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="459" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>481</v>
       </c>
@@ -34446,8 +35848,11 @@
       <c r="Y459">
         <v>2019</v>
       </c>
-    </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z459" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="460" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>482</v>
       </c>
@@ -34523,8 +35928,11 @@
       <c r="Y460">
         <v>2019</v>
       </c>
-    </row>
-    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z460" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="461" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>483</v>
       </c>
@@ -34600,8 +36008,11 @@
       <c r="Y461">
         <v>2019</v>
       </c>
-    </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z461" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="462" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>484</v>
       </c>
@@ -34677,8 +36088,11 @@
       <c r="Y462">
         <v>2019</v>
       </c>
-    </row>
-    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z462" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="463" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>485</v>
       </c>
@@ -34748,8 +36162,11 @@
       <c r="Y463">
         <v>2019</v>
       </c>
-    </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z463" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="464" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>486</v>
       </c>
@@ -34825,8 +36242,11 @@
       <c r="Y464">
         <v>2019</v>
       </c>
-    </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z464" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="465" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>487</v>
       </c>
@@ -34902,8 +36322,11 @@
       <c r="Y465">
         <v>2019</v>
       </c>
-    </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z465" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="466" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>488</v>
       </c>
@@ -34979,8 +36402,11 @@
       <c r="Y466">
         <v>2019</v>
       </c>
-    </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z466" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="467" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>489</v>
       </c>
@@ -35056,8 +36482,11 @@
       <c r="Y467">
         <v>2019</v>
       </c>
-    </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z467" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="468" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -35133,8 +36562,11 @@
       <c r="Y468">
         <v>2019</v>
       </c>
-    </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z468" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="469" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -35210,8 +36642,11 @@
       <c r="Y469">
         <v>2019</v>
       </c>
-    </row>
-    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z469" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="470" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -35287,8 +36722,11 @@
       <c r="Y470">
         <v>2019</v>
       </c>
-    </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z470" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="471" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -35364,8 +36802,11 @@
       <c r="Y471">
         <v>2019</v>
       </c>
-    </row>
-    <row r="472" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z471" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="472" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -35441,8 +36882,11 @@
       <c r="Y472">
         <v>2019</v>
       </c>
-    </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z472" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="473" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -35518,8 +36962,11 @@
       <c r="Y473">
         <v>2019</v>
       </c>
-    </row>
-    <row r="474" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z473" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="474" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -35589,8 +37036,11 @@
       <c r="Y474">
         <v>2019</v>
       </c>
-    </row>
-    <row r="475" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z474" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="475" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -35660,8 +37110,11 @@
       <c r="Y475">
         <v>2019</v>
       </c>
-    </row>
-    <row r="476" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z475" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="476" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -35737,8 +37190,11 @@
       <c r="Y476">
         <v>2019</v>
       </c>
-    </row>
-    <row r="477" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z476" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="477" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -35814,8 +37270,11 @@
       <c r="Y477">
         <v>2019</v>
       </c>
-    </row>
-    <row r="478" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z477" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="478" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -35891,8 +37350,11 @@
       <c r="Y478">
         <v>2019</v>
       </c>
-    </row>
-    <row r="479" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z478" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="479" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>501</v>
       </c>
@@ -35968,8 +37430,11 @@
       <c r="Y479">
         <v>2019</v>
       </c>
-    </row>
-    <row r="480" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z479" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="480" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>502</v>
       </c>
@@ -36006,8 +37471,11 @@
       <c r="Y480">
         <v>2019</v>
       </c>
-    </row>
-    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z480" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="481" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>503</v>
       </c>
@@ -36044,8 +37512,11 @@
       <c r="Y481">
         <v>2019</v>
       </c>
-    </row>
-    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z481" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="482" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>504</v>
       </c>
@@ -36121,8 +37592,11 @@
       <c r="Y482">
         <v>2020</v>
       </c>
-    </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z482" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="483" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>505</v>
       </c>
@@ -36198,8 +37672,11 @@
       <c r="Y483">
         <v>2020</v>
       </c>
-    </row>
-    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z483" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="484" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -36275,8 +37752,11 @@
       <c r="Y484">
         <v>2020</v>
       </c>
-    </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z484" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="485" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>507</v>
       </c>
@@ -36352,8 +37832,11 @@
       <c r="Y485">
         <v>2020</v>
       </c>
-    </row>
-    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z485" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="486" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -36429,8 +37912,11 @@
       <c r="Y486">
         <v>2020</v>
       </c>
-    </row>
-    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z486" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="487" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>509</v>
       </c>
@@ -36506,8 +37992,11 @@
       <c r="Y487">
         <v>2020</v>
       </c>
-    </row>
-    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z487" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="488" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>510</v>
       </c>
@@ -36583,8 +38072,11 @@
       <c r="Y488">
         <v>2020</v>
       </c>
-    </row>
-    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z488" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="489" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>511</v>
       </c>
@@ -36660,8 +38152,11 @@
       <c r="Y489">
         <v>2020</v>
       </c>
-    </row>
-    <row r="490" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z489" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="490" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>512</v>
       </c>
@@ -36737,8 +38232,11 @@
       <c r="Y490">
         <v>2020</v>
       </c>
-    </row>
-    <row r="491" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z490" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="491" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>513</v>
       </c>
@@ -36814,8 +38312,11 @@
       <c r="Y491">
         <v>2020</v>
       </c>
-    </row>
-    <row r="492" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z491" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="492" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>514</v>
       </c>
@@ -36891,8 +38392,11 @@
       <c r="Y492">
         <v>2020</v>
       </c>
-    </row>
-    <row r="493" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z492" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="493" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>515</v>
       </c>
@@ -36968,8 +38472,11 @@
       <c r="Y493">
         <v>2020</v>
       </c>
-    </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z493" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="494" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>516</v>
       </c>
@@ -37045,8 +38552,11 @@
       <c r="Y494">
         <v>2020</v>
       </c>
-    </row>
-    <row r="495" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z494" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="495" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>517</v>
       </c>
@@ -37122,8 +38632,11 @@
       <c r="Y495">
         <v>2020</v>
       </c>
-    </row>
-    <row r="496" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z495" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="496" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>518</v>
       </c>
@@ -37199,8 +38712,11 @@
       <c r="Y496">
         <v>2020</v>
       </c>
-    </row>
-    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z496" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>519</v>
       </c>
@@ -37276,8 +38792,11 @@
       <c r="Y497">
         <v>2020</v>
       </c>
-    </row>
-    <row r="498" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z497" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -37353,8 +38872,11 @@
       <c r="Y498">
         <v>2020</v>
       </c>
-    </row>
-    <row r="499" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z498" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="499" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -37430,8 +38952,11 @@
       <c r="Y499">
         <v>2020</v>
       </c>
-    </row>
-    <row r="500" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z499" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="500" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -37507,8 +39032,11 @@
       <c r="Y500">
         <v>2020</v>
       </c>
-    </row>
-    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z500" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="501" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>523</v>
       </c>
@@ -37584,8 +39112,11 @@
       <c r="Y501">
         <v>2020</v>
       </c>
-    </row>
-    <row r="502" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z501" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="502" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>524</v>
       </c>
@@ -37661,8 +39192,11 @@
       <c r="Y502">
         <v>2020</v>
       </c>
-    </row>
-    <row r="503" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z502" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>525</v>
       </c>
@@ -37738,8 +39272,11 @@
       <c r="Y503">
         <v>2020</v>
       </c>
-    </row>
-    <row r="504" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z503" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="504" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>526</v>
       </c>
@@ -37809,8 +39346,11 @@
       <c r="Y504">
         <v>2020</v>
       </c>
-    </row>
-    <row r="505" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z504" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="505" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>527</v>
       </c>
@@ -37880,8 +39420,11 @@
       <c r="Y505">
         <v>2020</v>
       </c>
-    </row>
-    <row r="506" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z505" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="506" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>528</v>
       </c>
@@ -37957,8 +39500,11 @@
       <c r="Y506">
         <v>2020</v>
       </c>
-    </row>
-    <row r="507" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z506" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="507" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>529</v>
       </c>
@@ -38034,8 +39580,11 @@
       <c r="Y507">
         <v>2020</v>
       </c>
-    </row>
-    <row r="508" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z507" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>530</v>
       </c>
@@ -38111,8 +39660,11 @@
       <c r="Y508">
         <v>2020</v>
       </c>
-    </row>
-    <row r="509" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z508" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="509" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>531</v>
       </c>
@@ -38188,8 +39740,11 @@
       <c r="Y509">
         <v>2020</v>
       </c>
-    </row>
-    <row r="510" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z509" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="510" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>532</v>
       </c>
@@ -38265,8 +39820,11 @@
       <c r="Y510">
         <v>2020</v>
       </c>
-    </row>
-    <row r="511" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z510" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="511" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>533</v>
       </c>
@@ -38342,8 +39900,11 @@
       <c r="Y511">
         <v>2020</v>
       </c>
-    </row>
-    <row r="512" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z511" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="512" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>534</v>
       </c>
@@ -38419,8 +39980,11 @@
       <c r="Y512">
         <v>2020</v>
       </c>
-    </row>
-    <row r="513" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z512" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="513" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>535</v>
       </c>
@@ -38496,8 +40060,11 @@
       <c r="Y513">
         <v>2020</v>
       </c>
-    </row>
-    <row r="514" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z513" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="514" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>536</v>
       </c>
@@ -38573,8 +40140,11 @@
       <c r="Y514">
         <v>2020</v>
       </c>
-    </row>
-    <row r="515" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z514" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="515" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>537</v>
       </c>
@@ -38650,8 +40220,11 @@
       <c r="Y515">
         <v>2020</v>
       </c>
-    </row>
-    <row r="516" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z515" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="516" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>538</v>
       </c>
@@ -38727,8 +40300,11 @@
       <c r="Y516">
         <v>2020</v>
       </c>
-    </row>
-    <row r="517" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z516" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="517" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>539</v>
       </c>
@@ -38798,8 +40374,11 @@
       <c r="Y517">
         <v>2020</v>
       </c>
-    </row>
-    <row r="518" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z517" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="518" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>540</v>
       </c>
@@ -38869,8 +40448,11 @@
       <c r="Y518">
         <v>2020</v>
       </c>
-    </row>
-    <row r="519" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z518" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="519" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>541</v>
       </c>
@@ -38946,8 +40528,11 @@
       <c r="Y519">
         <v>2020</v>
       </c>
-    </row>
-    <row r="520" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z519" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="520" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>542</v>
       </c>
@@ -39023,8 +40608,11 @@
       <c r="Y520">
         <v>2020</v>
       </c>
-    </row>
-    <row r="521" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z520" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="521" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>543</v>
       </c>
@@ -39100,8 +40688,11 @@
       <c r="Y521">
         <v>2020</v>
       </c>
-    </row>
-    <row r="522" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z521" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="522" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>544</v>
       </c>
@@ -39177,8 +40768,11 @@
       <c r="Y522">
         <v>2020</v>
       </c>
-    </row>
-    <row r="523" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z522" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="523" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>545</v>
       </c>
@@ -39254,8 +40848,11 @@
       <c r="Y523">
         <v>2020</v>
       </c>
-    </row>
-    <row r="524" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z523" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="524" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>546</v>
       </c>
@@ -39331,8 +40928,11 @@
       <c r="Y524">
         <v>2020</v>
       </c>
-    </row>
-    <row r="525" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z524" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="525" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>547</v>
       </c>
@@ -39402,8 +41002,11 @@
       <c r="Y525">
         <v>2020</v>
       </c>
-    </row>
-    <row r="526" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z525" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="526" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>548</v>
       </c>
@@ -39479,8 +41082,11 @@
       <c r="Y526">
         <v>2020</v>
       </c>
-    </row>
-    <row r="527" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z526" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="527" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>549</v>
       </c>
@@ -39556,8 +41162,11 @@
       <c r="Y527">
         <v>2020</v>
       </c>
-    </row>
-    <row r="528" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z527" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="528" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>550</v>
       </c>
@@ -39627,8 +41236,11 @@
       <c r="Y528">
         <v>2020</v>
       </c>
-    </row>
-    <row r="529" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z528" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="529" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>551</v>
       </c>
@@ -39698,8 +41310,11 @@
       <c r="Y529">
         <v>2020</v>
       </c>
-    </row>
-    <row r="530" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z529" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="530" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>552</v>
       </c>
@@ -39775,8 +41390,11 @@
       <c r="Y530">
         <v>2020</v>
       </c>
-    </row>
-    <row r="531" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z530" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="531" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>553</v>
       </c>
@@ -39852,8 +41470,11 @@
       <c r="Y531">
         <v>2020</v>
       </c>
-    </row>
-    <row r="532" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z531" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="532" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>554</v>
       </c>
@@ -39923,8 +41544,11 @@
       <c r="Y532">
         <v>2020</v>
       </c>
-    </row>
-    <row r="533" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z532" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="533" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>555</v>
       </c>
@@ -39961,8 +41585,11 @@
       <c r="Y533">
         <v>2020</v>
       </c>
-    </row>
-    <row r="534" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z533" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="534" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>556</v>
       </c>
@@ -40038,8 +41665,11 @@
       <c r="Y534">
         <v>2020</v>
       </c>
-    </row>
-    <row r="535" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z534" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="535" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>557</v>
       </c>
@@ -40115,8 +41745,11 @@
       <c r="Y535">
         <v>2020</v>
       </c>
-    </row>
-    <row r="536" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z535" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="536" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>558</v>
       </c>
@@ -40192,8 +41825,11 @@
       <c r="Y536">
         <v>2020</v>
       </c>
-    </row>
-    <row r="537" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z536" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="537" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>559</v>
       </c>
@@ -40269,8 +41905,11 @@
       <c r="Y537">
         <v>2020</v>
       </c>
-    </row>
-    <row r="538" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z537" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="538" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>560</v>
       </c>
@@ -40346,8 +41985,11 @@
       <c r="Y538">
         <v>2020</v>
       </c>
-    </row>
-    <row r="539" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z538" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="539" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>561</v>
       </c>
@@ -40423,8 +42065,11 @@
       <c r="Y539">
         <v>2020</v>
       </c>
-    </row>
-    <row r="540" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z539" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="540" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>562</v>
       </c>
@@ -40494,8 +42139,11 @@
       <c r="Y540">
         <v>2020</v>
       </c>
-    </row>
-    <row r="541" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z540" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="541" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>563</v>
       </c>
@@ -40570,6 +42218,9 @@
       </c>
       <c r="Y541">
         <v>2020</v>
+      </c>
+      <c r="Z541" t="s">
+        <v>803</v>
       </c>
     </row>
   </sheetData>
